--- a/exercise3/trials.xlsx
+++ b/exercise3/trials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Documents\Curso\MECD\ML\Project\mlproject2324\exercise3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58952B4E-85B0-4D4C-A7B1-7C119DD1550E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8931E12A-5CF2-4EF2-A1FB-3DC0861BC6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55494024-CC94-4D26-8E20-337F580B80C7}"/>
+    <workbookView xWindow="1872" yWindow="2436" windowWidth="17280" windowHeight="8964" xr2:uid="{55494024-CC94-4D26-8E20-337F580B80C7}"/>
   </bookViews>
   <sheets>
     <sheet name="MODELS" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Val</t>
   </si>
@@ -166,20 +166,6 @@
   </si>
   <si>
     <t>Augmentation Type</t>
-  </si>
-  <si>
-    <t>SVM0.1 mean: 0.7702584202751948  std: 0.009563035560710167
-SVM1 mean: 0.7818107537909408  std: 0.007353438865657824
-SVM5 mean: 0.789601325660479  std: 0.0156948526060841
-SVM10 mean: 0.7840802697854483  std: 0.019094223137051364
-SVM15 mean: 0.7771222432662439  std: 0.01764921557713596
-SVM20 mean: 0.7756458424276906  std: 0.016869858729924254</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1074 690</t>
   </si>
 </sst>
 </file>
@@ -234,11 +220,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA88900-05CB-4DF6-8AE8-BCFB8E371417}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,24 +552,24 @@
     <col min="4" max="4" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -601,14 +585,15 @@
       <c r="E2">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
+        <f>78.726</f>
         <v>78.725999999999999</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>1.75</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -624,14 +609,14 @@
       <c r="E3">
         <v>7.3499999999999998E-3</v>
       </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F3" s="3">
+        <v>79.17</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -647,21 +632,95 @@
       <c r="E4">
         <v>1.47E-2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
+        <f>79.24</f>
         <v>79.239999999999995</v>
       </c>
-      <c r="G4">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>43</v>
+      <c r="G4" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <f>B2*100</f>
+        <v>59.199999999999996</v>
+      </c>
+      <c r="C6">
+        <f>C2*100+0.02</f>
+        <v>1.02</v>
+      </c>
+      <c r="D6">
+        <f>D2*100</f>
+        <v>77.7</v>
+      </c>
+      <c r="E6">
+        <f>E2*100</f>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="F6" s="3">
+        <f>78.726</f>
+        <v>78.725999999999999</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:E7" si="0">B3*100</f>
+        <v>77.900000000000006</v>
+      </c>
+      <c r="C7">
+        <f>C3*100+0.03</f>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>78.7</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:E8" si="1">B4*100</f>
+        <v>78.69</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>78.2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1.47</v>
+      </c>
+      <c r="F8" s="3">
+        <f>79.24</f>
+        <v>79.239999999999995</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -695,14 +754,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
